--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>错误码</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>其他人正申请退出</t>
+  </si>
+  <si>
+    <t>GAME_TING_FAIL</t>
+  </si>
+  <si>
+    <t>听牌失败</t>
   </si>
   <si>
     <t>APPLY_REJECT</t>
@@ -660,6 +666,17 @@
         <v>70</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>错误码</t>
   </si>
@@ -137,6 +137,12 @@
     <t>房间已经满了</t>
   </si>
   <si>
+    <t>IP_LIMIT</t>
+  </si>
+  <si>
+    <t>ip相同</t>
+  </si>
+  <si>
     <t>GAME_NOT_EXIST</t>
   </si>
   <si>
@@ -173,6 +179,12 @@
     <t>没轮到你</t>
   </si>
   <si>
+    <t>CHI_PENG_CARD</t>
+  </si>
+  <si>
+    <t>吃碰过的牌本回合不能出</t>
+  </si>
+  <si>
     <t>NOT_SAME_TYPE</t>
   </si>
   <si>
@@ -231,6 +243,18 @@
   </si>
   <si>
     <t>燃点币不足</t>
+  </si>
+  <si>
+    <t>PLAYBACK_NOT_EXIST</t>
+  </si>
+  <si>
+    <t>回放录像不存在</t>
+  </si>
+  <si>
+    <t>PLAYBACK_DAMAGED</t>
+  </si>
+  <si>
+    <t>回放录像损坏</t>
   </si>
 </sst>
 </file>
@@ -677,6 +701,50 @@
         <v>72</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
